--- a/classes/DS/DS_12T1.xlsx
+++ b/classes/DS/DS_12T1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenquochung/Downloads/CODE/ESP32/project_backup/Server/classes/DS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC733F5-C6F5-C443-8A2F-D303CDE4CA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBFAC85-F3D3-A14A-B892-220B510E95D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15360" xr2:uid="{B055F269-2702-2344-BD83-93B4FB245D3C}"/>
   </bookViews>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74AFF02-BE5C-2E4A-A7F2-242B26326802}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="217" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="217" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
